--- a/Clase 4.xlsx
+++ b/Clase 4.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB2CD16-7E1C-4D7A-8281-26190D9BEAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB2498-D485-4A14-A1D8-C8BF112316B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" xr2:uid="{527D7A75-B371-4328-A863-92A6BCE14D8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" activeTab="1" xr2:uid="{527D7A75-B371-4328-A863-92A6BCE14D8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Liquidación de sueldos" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Cooperatica Electrica" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +35,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Carlos Intercrios</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{6F33BE15-2221-4759-91C8-BA5D1339F79D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Intercrios:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Suma no Remunerativa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{AFDE5702-27C2-43E1-BCC7-8EB5B1FA9675}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Intercrios:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Suma no Remunerativa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{C2A4494A-0885-4ED8-8AF7-58E810F6DD9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Intercrios:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Suma Remunerativa</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Legajo</t>
   </si>
@@ -99,6 +181,90 @@
   </si>
   <si>
     <t>Presentismo</t>
+  </si>
+  <si>
+    <t>Presentismo: Si I3="SI": sumar 4000 sino suma 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =B3+F3+J3+SI(I3="SI";$I$1;0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =SI(I3="SI";B3+F3+J3+$I$1;B3+F3+J3)</t>
+  </si>
+  <si>
+    <t>Total No Remunerativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =K3+G3*$G$1+SI(H3="SI";$H$1;0)</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>c01</t>
+  </si>
+  <si>
+    <t>c02</t>
+  </si>
+  <si>
+    <t>c03</t>
+  </si>
+  <si>
+    <t>c04</t>
+  </si>
+  <si>
+    <t>c05</t>
+  </si>
+  <si>
+    <t>c06</t>
+  </si>
+  <si>
+    <t>Tipo Cliente</t>
+  </si>
+  <si>
+    <t>Residencial</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>Abono Mensual</t>
+  </si>
+  <si>
+    <t>Valor x KW</t>
+  </si>
+  <si>
+    <t>Valor x KW: Si el clientes es Residencial paga 5$ sino 6$</t>
+  </si>
+  <si>
+    <t>Abono Mensual: Si el clientes es Residencial paga $3500 sino $5000</t>
+  </si>
+  <si>
+    <t>Medidor</t>
+  </si>
+  <si>
+    <t>Estado Inicial</t>
+  </si>
+  <si>
+    <t>Estado Final</t>
+  </si>
+  <si>
+    <t>Cantidad de KWs</t>
+  </si>
+  <si>
+    <t>Total $ KWS</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>Impuestos Varios</t>
+  </si>
+  <si>
+    <t>Total a pagar $</t>
   </si>
 </sst>
 </file>
@@ -108,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +297,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,11 +325,246 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -153,7 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -164,6 +584,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -478,14 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728408F0-8305-43D8-8847-5A120BA59120}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728408F0-8305-43D8-8847-5A120BA59120}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,13 +947,13 @@
     <col min="6" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D1" s="1">
         <v>0.5</v>
       </c>
@@ -519,17 +969,17 @@
       <c r="I1" s="3">
         <v>4000</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>0.11</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>0.06</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>0.03</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,25 +1017,28 @@
         <v>8</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -622,35 +1075,39 @@
         <v>4000</v>
       </c>
       <c r="L3" s="4">
-        <f>B3+F3+J3</f>
-        <v>68000</v>
+        <f>B3+F3+J3+IF(I3="SI",$I$1,0)</f>
+        <v>72000</v>
       </c>
       <c r="M3" s="4">
-        <f>K3+L3</f>
-        <v>72000</v>
+        <f>K3+G3*$G$1+IF(H3="SI",$H$1,0)</f>
+        <v>5550</v>
       </c>
       <c r="N3" s="4">
-        <f>$L3*N$1</f>
-        <v>7480</v>
+        <f>L3+M3</f>
+        <v>77550</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:P3" si="0">$L3*O$1</f>
-        <v>4080</v>
+        <f>$L3*O$1</f>
+        <v>7920</v>
       </c>
       <c r="P3" s="4">
+        <f t="shared" ref="P3:Q3" si="0">$L3*P$1</f>
+        <v>4320</v>
+      </c>
+      <c r="Q3" s="4">
         <f t="shared" si="0"/>
-        <v>2040</v>
-      </c>
-      <c r="Q3" s="4">
-        <f>SUM(N3:P3)</f>
-        <v>13600</v>
+        <v>2160</v>
       </c>
       <c r="R3" s="4">
-        <f>M3-Q3</f>
-        <v>58400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <f>SUM(O3:Q3)</f>
+        <v>14400</v>
+      </c>
+      <c r="S3" s="4">
+        <f>N3-R3</f>
+        <v>63150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -687,35 +1144,39 @@
         <v>4000</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L7" si="3">B4+F4+J4</f>
-        <v>63875</v>
+        <f t="shared" ref="L4:L7" si="3">B4+F4+J4+IF(I4="SI",$I$1,0)</f>
+        <v>67875</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M7" si="4">K4+L4</f>
-        <v>67875</v>
+        <f t="shared" ref="M4:M7" si="4">K4+G4*$G$1+IF(H4="SI",$H$1,0)</f>
+        <v>4700</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" ref="N4:P7" si="5">$L4*N$1</f>
-        <v>7026.25</v>
+        <f t="shared" ref="N4:N7" si="5">L4+M4</f>
+        <v>72575</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" si="5"/>
-        <v>3832.5</v>
+        <f t="shared" ref="O4:Q7" si="6">$L4*O$1</f>
+        <v>7466.25</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="5"/>
-        <v>1916.25</v>
+        <f t="shared" si="6"/>
+        <v>4072.5</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" ref="Q4:Q7" si="6">SUM(N4:P4)</f>
-        <v>12775</v>
+        <f t="shared" si="6"/>
+        <v>2036.25</v>
       </c>
       <c r="R4" s="4">
-        <f t="shared" ref="R4:R7" si="7">M4-Q4</f>
-        <v>55100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R4:R7" si="7">SUM(O4:Q4)</f>
+        <v>13575</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" ref="S4:S7" si="8">N4-R4</f>
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -757,30 +1218,34 @@
       </c>
       <c r="M5" s="4">
         <f t="shared" si="4"/>
-        <v>66000</v>
+        <v>4500</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="5"/>
+        <v>66500</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="6"/>
         <v>6820</v>
       </c>
-      <c r="O5" s="4">
-        <f t="shared" si="5"/>
+      <c r="P5" s="4">
+        <f t="shared" si="6"/>
         <v>3720</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" si="5"/>
-        <v>1860</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="6"/>
-        <v>12400</v>
+        <v>1860</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="7"/>
-        <v>53600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12400</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="8"/>
+        <v>54100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -822,30 +1287,34 @@
       </c>
       <c r="M6" s="4">
         <f t="shared" si="4"/>
-        <v>67000</v>
+        <v>4350</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="5"/>
+        <v>67350</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="6"/>
         <v>6930</v>
       </c>
-      <c r="O6" s="4">
-        <f t="shared" si="5"/>
+      <c r="P6" s="4">
+        <f t="shared" si="6"/>
         <v>3780</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" si="5"/>
-        <v>1890</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="6"/>
-        <v>12600</v>
+        <v>1890</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="7"/>
-        <v>54400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12600</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="8"/>
+        <v>54750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -883,52 +1352,78 @@
       </c>
       <c r="L7" s="4">
         <f t="shared" si="3"/>
-        <v>82000</v>
+        <v>86000</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="4"/>
-        <v>86000</v>
+        <v>4850</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="5"/>
-        <v>9020</v>
+        <v>90850</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="5"/>
-        <v>4920</v>
+        <f t="shared" si="6"/>
+        <v>9460</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="5"/>
-        <v>2460</v>
+        <f t="shared" si="6"/>
+        <v>5160</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="6"/>
-        <v>16400</v>
+        <v>2580</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="7"/>
-        <v>69600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q8" s="5" t="s">
+        <v>17200</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="8"/>
+        <v>73650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="6">
-        <f>SUM(R3:R7)</f>
-        <v>291100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="6">
+        <f>SUM(S3:S7)</f>
+        <v>304650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11">
+        <f>IF(I3="SI",B3+F3+J3+$I$1,B3+F3+J3)</f>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -937,17 +1432,239 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8A0364-462B-4941-877E-A434AC9E54E1}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19">
+        <v>0.21</v>
+      </c>
+      <c r="K1" s="19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15">
+        <v>8080</v>
+      </c>
+      <c r="F3" s="15">
+        <v>9009</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>5050</v>
+      </c>
+      <c r="F4" s="8">
+        <v>6060</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>6060</v>
+      </c>
+      <c r="F5" s="8">
+        <v>7020</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>7070</v>
+      </c>
+      <c r="F6" s="8">
+        <v>8120</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>2020</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2220</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>3030</v>
+      </c>
+      <c r="F8" s="12">
+        <v>3333</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Clase 4.xlsx
+++ b/Clase 4.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB2498-D485-4A14-A1D8-C8BF112316B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00762EC4-F6FD-4FA3-BB2E-1200C39C2E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" activeTab="1" xr2:uid="{527D7A75-B371-4328-A863-92A6BCE14D8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" firstSheet="2" activeTab="5" xr2:uid="{527D7A75-B371-4328-A863-92A6BCE14D8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Liquidación de sueldos" sheetId="2" r:id="rId1"/>
     <sheet name="Cooperatica Electrica" sheetId="1" r:id="rId2"/>
+    <sheet name="Formulas Fecha Hora" sheetId="3" r:id="rId3"/>
+    <sheet name="Calculo de Fechas" sheetId="4" r:id="rId4"/>
+    <sheet name="Bodega" sheetId="5" r:id="rId5"/>
+    <sheet name="Hotel" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -113,12 +117,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{61D61C1F-D0C5-4EE4-899C-517E13C6ACDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Carlos Intercrios:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Suma Remunerativa
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
   <si>
     <t>Legajo</t>
   </si>
@@ -168,6 +197,9 @@
     <t>Total:</t>
   </si>
   <si>
+    <t xml:space="preserve"> =I3*$K$1</t>
+  </si>
+  <si>
     <t>Hijos</t>
   </si>
   <si>
@@ -265,6 +297,171 @@
   </si>
   <si>
     <t>Total a pagar $</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =SI(B3="Residencial";3500;5000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =SI(B3="Residencial";5;6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =F3-E3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =D3*G3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =C3+H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =I3*$J$1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =I3+J3+K3</t>
+  </si>
+  <si>
+    <t>ctrol ; atajo para fecha actual</t>
+  </si>
+  <si>
+    <t>ctrol shift : atajo para hora actual</t>
+  </si>
+  <si>
+    <t>Cochera</t>
+  </si>
+  <si>
+    <t>Patente</t>
+  </si>
+  <si>
+    <t>Hora Entrada</t>
+  </si>
+  <si>
+    <t>Hora Salida</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>asd 234</t>
+  </si>
+  <si>
+    <t>grg 234</t>
+  </si>
+  <si>
+    <t>kkk 456</t>
+  </si>
+  <si>
+    <t>Inicio de curso:</t>
+  </si>
+  <si>
+    <t>C7=DIAS360(C1;A1)</t>
+  </si>
+  <si>
+    <t>C8=C7/360</t>
+  </si>
+  <si>
+    <t>R=ENTERO(C8)</t>
+  </si>
+  <si>
+    <t>R=ENTERO(DIAS360(C1;A1)/360)</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Malbec</t>
+  </si>
+  <si>
+    <t>Torrontes</t>
+  </si>
+  <si>
+    <t>Cabernet</t>
+  </si>
+  <si>
+    <t>Espumante</t>
+  </si>
+  <si>
+    <t>Cantidad Litros</t>
+  </si>
+  <si>
+    <t>Valor x Litro</t>
+  </si>
+  <si>
+    <t>Fecha Cosecha</t>
+  </si>
+  <si>
+    <t>Valor $</t>
+  </si>
+  <si>
+    <t>Antigüedad</t>
+  </si>
+  <si>
+    <t>Antigüedad en años</t>
+  </si>
+  <si>
+    <t>C1=Fecha inicial</t>
+  </si>
+  <si>
+    <t>A1=Fecha actual</t>
+  </si>
+  <si>
+    <t>Fecha Ingreso</t>
+  </si>
+  <si>
+    <t>Plus x Antigüedad</t>
+  </si>
+  <si>
+    <t>Pendiente terminar antigüedad Relación laboral</t>
+  </si>
+  <si>
+    <t>Pendiente terminar hotel turistico</t>
+  </si>
+  <si>
+    <t>Pasajeros</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>P05</t>
+  </si>
+  <si>
+    <t>P06</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>Check In</t>
+  </si>
+  <si>
+    <t>Check out</t>
+  </si>
+  <si>
+    <t>Cantidad Noches</t>
+  </si>
+  <si>
+    <t>Resto</t>
+  </si>
+  <si>
+    <t>Frigo Bar</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>Total a pagar</t>
+  </si>
+  <si>
+    <t>Formula</t>
   </si>
 </sst>
 </file>
@@ -317,15 +514,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -364,21 +573,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -398,21 +592,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -573,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -584,36 +763,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -932,10 +1122,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="K3" sqref="K3:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,16 +1134,18 @@
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D1" s="1">
         <v>0.5</v>
       </c>
@@ -969,17 +1161,25 @@
       <c r="I1" s="3">
         <v>4000</v>
       </c>
-      <c r="O1" s="1">
+      <c r="J1" s="32">
+        <f ca="1">TODAY()</f>
+        <v>44697</v>
+      </c>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33">
+        <v>0.01</v>
+      </c>
+      <c r="R1" s="1">
         <v>0.11</v>
       </c>
-      <c r="P1" s="1">
+      <c r="S1" s="1">
         <v>0.06</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="T1" s="1">
         <v>0.03</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -999,46 +1199,55 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1063,51 +1272,56 @@
         <v>3</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3">
+        <v>19</v>
+      </c>
+      <c r="J3" s="29">
+        <v>38509</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="3">
         <v>12000</v>
       </c>
-      <c r="K3" s="3">
+      <c r="N3" s="3">
         <v>4000</v>
       </c>
-      <c r="L3" s="4">
-        <f>B3+F3+J3+IF(I3="SI",$I$1,0)</f>
+      <c r="O3" s="4">
+        <f>B3+F3+M3+IF(I3="SI",$I$1,0)</f>
         <v>72000</v>
       </c>
-      <c r="M3" s="4">
-        <f>K3+G3*$G$1+IF(H3="SI",$H$1,0)</f>
+      <c r="P3" s="4">
+        <f>N3+G3*$G$1+IF(H3="SI",$H$1,0)</f>
         <v>5550</v>
       </c>
-      <c r="N3" s="4">
-        <f>L3+M3</f>
+      <c r="Q3" s="4">
+        <f>O3+P3</f>
         <v>77550</v>
       </c>
-      <c r="O3" s="4">
-        <f>$L3*O$1</f>
+      <c r="R3" s="4">
+        <f>$O3*R$1</f>
         <v>7920</v>
       </c>
-      <c r="P3" s="4">
-        <f t="shared" ref="P3:Q3" si="0">$L3*P$1</f>
+      <c r="S3" s="4">
+        <f t="shared" ref="S3:T3" si="0">$O3*S$1</f>
         <v>4320</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="T3" s="4">
         <f t="shared" si="0"/>
         <v>2160</v>
       </c>
-      <c r="R3" s="4">
-        <f>SUM(O3:Q3)</f>
+      <c r="U3" s="4">
+        <f>SUM(R3:T3)</f>
         <v>14400</v>
       </c>
-      <c r="S3" s="4">
-        <f>N3-R3</f>
+      <c r="V3" s="4">
+        <f>Q3-U3</f>
         <v>63150</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -1132,51 +1346,56 @@
         <v>2</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="J4" s="29">
+        <v>38969</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="3">
         <v>12000</v>
       </c>
-      <c r="K4" s="3">
+      <c r="N4" s="3">
         <v>4000</v>
       </c>
-      <c r="L4" s="4">
-        <f t="shared" ref="L4:L7" si="3">B4+F4+J4+IF(I4="SI",$I$1,0)</f>
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:O7" si="3">B4+F4+M4+IF(I4="SI",$I$1,0)</f>
         <v>67875</v>
       </c>
-      <c r="M4" s="4">
-        <f t="shared" ref="M4:M7" si="4">K4+G4*$G$1+IF(H4="SI",$H$1,0)</f>
+      <c r="P4" s="4">
+        <f t="shared" ref="P4:P7" si="4">N4+G4*$G$1+IF(H4="SI",$H$1,0)</f>
         <v>4700</v>
       </c>
-      <c r="N4" s="4">
-        <f t="shared" ref="N4:N7" si="5">L4+M4</f>
+      <c r="Q4" s="4">
+        <f t="shared" ref="Q4:Q7" si="5">O4+P4</f>
         <v>72575</v>
       </c>
-      <c r="O4" s="4">
-        <f t="shared" ref="O4:Q7" si="6">$L4*O$1</f>
+      <c r="R4" s="4">
+        <f t="shared" ref="R4:T7" si="6">$O4*R$1</f>
         <v>7466.25</v>
       </c>
-      <c r="P4" s="4">
+      <c r="S4" s="4">
         <f t="shared" si="6"/>
         <v>4072.5</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="T4" s="4">
         <f t="shared" si="6"/>
         <v>2036.25</v>
       </c>
-      <c r="R4" s="4">
-        <f t="shared" ref="R4:R7" si="7">SUM(O4:Q4)</f>
+      <c r="U4" s="4">
+        <f t="shared" ref="U4:U7" si="7">SUM(R4:T4)</f>
         <v>13575</v>
       </c>
-      <c r="S4" s="4">
-        <f t="shared" ref="S4:S7" si="8">N4-R4</f>
+      <c r="V4" s="4">
+        <f t="shared" ref="V4:V7" si="8">Q4-U4</f>
         <v>59000</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -1201,51 +1420,56 @@
         <v>0</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3">
+        <v>20</v>
+      </c>
+      <c r="J5" s="29">
+        <v>40096</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="3">
         <v>12000</v>
       </c>
-      <c r="K5" s="3">
+      <c r="N5" s="3">
         <v>4000</v>
       </c>
-      <c r="L5" s="4">
+      <c r="O5" s="4">
         <f t="shared" si="3"/>
         <v>62000</v>
       </c>
-      <c r="M5" s="4">
+      <c r="P5" s="4">
         <f t="shared" si="4"/>
         <v>4500</v>
       </c>
-      <c r="N5" s="4">
+      <c r="Q5" s="4">
         <f t="shared" si="5"/>
         <v>66500</v>
       </c>
-      <c r="O5" s="4">
+      <c r="R5" s="4">
         <f t="shared" si="6"/>
         <v>6820</v>
       </c>
-      <c r="P5" s="4">
+      <c r="S5" s="4">
         <f t="shared" si="6"/>
         <v>3720</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="T5" s="4">
         <f t="shared" si="6"/>
         <v>1860</v>
       </c>
-      <c r="R5" s="4">
+      <c r="U5" s="4">
         <f t="shared" si="7"/>
         <v>12400</v>
       </c>
-      <c r="S5" s="4">
+      <c r="V5" s="4">
         <f t="shared" si="8"/>
         <v>54100</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -1270,51 +1494,56 @@
         <v>1</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="3">
+        <v>20</v>
+      </c>
+      <c r="J6" s="29">
+        <v>40858</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="3">
         <v>12000</v>
       </c>
-      <c r="K6" s="3">
+      <c r="N6" s="3">
         <v>4000</v>
       </c>
-      <c r="L6" s="4">
+      <c r="O6" s="4">
         <f t="shared" si="3"/>
         <v>63000</v>
       </c>
-      <c r="M6" s="4">
+      <c r="P6" s="4">
         <f t="shared" si="4"/>
         <v>4350</v>
       </c>
-      <c r="N6" s="4">
+      <c r="Q6" s="4">
         <f t="shared" si="5"/>
         <v>67350</v>
       </c>
-      <c r="O6" s="4">
+      <c r="R6" s="4">
         <f t="shared" si="6"/>
         <v>6930</v>
       </c>
-      <c r="P6" s="4">
+      <c r="S6" s="4">
         <f t="shared" si="6"/>
         <v>3780</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="T6" s="4">
         <f t="shared" si="6"/>
         <v>1890</v>
       </c>
-      <c r="R6" s="4">
+      <c r="U6" s="4">
         <f t="shared" si="7"/>
         <v>12600</v>
       </c>
-      <c r="S6" s="4">
+      <c r="V6" s="4">
         <f t="shared" si="8"/>
         <v>54750</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -1339,91 +1568,96 @@
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="3">
+        <v>19</v>
+      </c>
+      <c r="J7" s="29">
+        <v>42350</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="3">
         <v>12000</v>
       </c>
-      <c r="K7" s="3">
+      <c r="N7" s="3">
         <v>4000</v>
       </c>
-      <c r="L7" s="4">
+      <c r="O7" s="4">
         <f t="shared" si="3"/>
         <v>86000</v>
       </c>
-      <c r="M7" s="4">
+      <c r="P7" s="4">
         <f t="shared" si="4"/>
         <v>4850</v>
       </c>
-      <c r="N7" s="4">
+      <c r="Q7" s="4">
         <f t="shared" si="5"/>
         <v>90850</v>
       </c>
-      <c r="O7" s="4">
+      <c r="R7" s="4">
         <f t="shared" si="6"/>
         <v>9460</v>
       </c>
-      <c r="P7" s="4">
+      <c r="S7" s="4">
         <f t="shared" si="6"/>
         <v>5160</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="T7" s="4">
         <f t="shared" si="6"/>
         <v>2580</v>
       </c>
-      <c r="R7" s="4">
+      <c r="U7" s="4">
         <f t="shared" si="7"/>
         <v>17200</v>
       </c>
-      <c r="S7" s="4">
+      <c r="V7" s="4">
         <f t="shared" si="8"/>
         <v>73650</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R8" s="5" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="6">
-        <f>SUM(S3:S7)</f>
+      <c r="V8" s="6">
+        <f>SUM(V3:V7)</f>
         <v>304650</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L10" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11">
-        <f>IF(I3="SI",B3+F3+J3+$I$1,B3+F3+J3)</f>
+      <c r="O11">
+        <f>IF(I3="SI",B3+F3+M3+$I$1,B3+F3+M3)</f>
         <v>72000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
-      <c r="M14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
@@ -1441,223 +1675,408 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17">
         <v>0.21</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L1" s="20"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="A2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="26">
+        <f>IF(B3="Residencial",3500,5000)</f>
+        <v>3500</v>
+      </c>
+      <c r="D3" s="26">
+        <f>IF(B3="Residencial",5,6)</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="14">
+        <v>8080</v>
+      </c>
+      <c r="F3" s="14">
+        <v>9009</v>
+      </c>
+      <c r="G3" s="14">
+        <f>F3-E3</f>
+        <v>929</v>
+      </c>
+      <c r="H3" s="27">
+        <f>D3*G3</f>
+        <v>4645</v>
+      </c>
+      <c r="I3" s="27">
+        <f>C3+H3</f>
+        <v>8145</v>
+      </c>
+      <c r="J3" s="27">
+        <f>I3*$J$1</f>
+        <v>1710.45</v>
+      </c>
+      <c r="K3" s="27">
+        <f>I3*$K$1</f>
+        <v>1140.3000000000002</v>
+      </c>
+      <c r="L3" s="28">
+        <f>I3+J3+K3</f>
+        <v>10995.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15">
-        <v>8080</v>
-      </c>
-      <c r="F3" s="15">
-        <v>9009</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="26">
+        <f t="shared" ref="C4:C8" si="0">IF(B4="Residencial",3500,5000)</f>
+        <v>5000</v>
+      </c>
+      <c r="D4" s="26">
+        <f t="shared" ref="D4:D8" si="1">IF(B4="Residencial",5,6)</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5050</v>
+      </c>
+      <c r="F4" s="9">
+        <v>6060</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" ref="G4:G8" si="2">F4-E4</f>
+        <v>1010</v>
+      </c>
+      <c r="H4" s="27">
+        <f t="shared" ref="H4:H8" si="3">D4*G4</f>
+        <v>6060</v>
+      </c>
+      <c r="I4" s="27">
+        <f t="shared" ref="I4:I8" si="4">C4+H4</f>
+        <v>11060</v>
+      </c>
+      <c r="J4" s="27">
+        <f t="shared" ref="J3:J8" si="5">I4*$J$1</f>
+        <v>2322.6</v>
+      </c>
+      <c r="K4" s="27">
+        <f t="shared" ref="K4:K8" si="6">I4*$K$1</f>
+        <v>1548.4</v>
+      </c>
+      <c r="L4" s="28">
+        <f t="shared" ref="L4:L8" si="7">I4+J4+K4</f>
+        <v>14931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8">
-        <v>5050</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="C5" s="26">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="D5" s="26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
         <v>6060</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8">
-        <v>6060</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <v>7020</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="10"/>
+      <c r="G5" s="14">
+        <f t="shared" si="2"/>
+        <v>960</v>
+      </c>
+      <c r="H5" s="27">
+        <f t="shared" si="3"/>
+        <v>4800</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" si="4"/>
+        <v>8300</v>
+      </c>
+      <c r="J5" s="27">
+        <f t="shared" si="5"/>
+        <v>1743</v>
+      </c>
+      <c r="K5" s="27">
+        <f t="shared" si="6"/>
+        <v>1162</v>
+      </c>
+      <c r="L5" s="28">
+        <f t="shared" si="7"/>
+        <v>11205</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="26">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="D6" s="26">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="9">
+        <v>7070</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8120</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+      <c r="H6" s="27">
+        <f t="shared" si="3"/>
+        <v>6300</v>
+      </c>
+      <c r="I6" s="27">
+        <f t="shared" si="4"/>
+        <v>11300</v>
+      </c>
+      <c r="J6" s="27">
+        <f t="shared" si="5"/>
+        <v>2373</v>
+      </c>
+      <c r="K6" s="27">
+        <f t="shared" si="6"/>
+        <v>1582.0000000000002</v>
+      </c>
+      <c r="L6" s="28">
+        <f t="shared" si="7"/>
+        <v>15255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8">
-        <v>7070</v>
-      </c>
-      <c r="F6" s="8">
-        <v>8120</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
+      <c r="C7" s="26">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="D7" s="26">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
         <v>2020</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <v>2220</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="10"/>
+      <c r="G7" s="14">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="H7" s="27">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="I7" s="27">
+        <f t="shared" si="4"/>
+        <v>4500</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="5"/>
+        <v>945</v>
+      </c>
+      <c r="K7" s="27">
+        <f t="shared" si="6"/>
+        <v>630.00000000000011</v>
+      </c>
+      <c r="L7" s="28">
+        <f t="shared" si="7"/>
+        <v>6075</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="C8" s="26">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="D8" s="26">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
       <c r="E8" s="12">
         <v>3030</v>
       </c>
       <c r="F8" s="12">
         <v>3333</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
+      <c r="G8" s="14">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="3"/>
+        <v>1818</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="4"/>
+        <v>6818</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="5"/>
+        <v>1431.78</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="6"/>
+        <v>954.5200000000001</v>
+      </c>
+      <c r="L8" s="28">
+        <f t="shared" si="7"/>
+        <v>9204.3000000000011</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1667,4 +2086,660 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8D409D-DEC5-462D-A4FB-A1831A88B06D}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="29">
+        <f ca="1">TODAY()</f>
+        <v>44697</v>
+      </c>
+      <c r="C1" s="29">
+        <v>44697</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
+        <f ca="1">NOW()</f>
+        <v>44697.496149768522</v>
+      </c>
+      <c r="C2" s="30">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f ca="1">DAY(A1)</f>
+        <v>16</v>
+      </c>
+      <c r="C4" s="29">
+        <f>C1+45</f>
+        <v>44742</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="29">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f ca="1">MONTH(A1)</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="29">
+        <f>C1+20</f>
+        <v>44717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f ca="1">YEAR(A1)</f>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f ca="1">A1-F4</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f ca="1">HOUR(A2)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f ca="1">MINUTE(A2)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f ca="1">SECOND(A2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="30">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="C22" s="30">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="D22" s="30">
+        <f>C22-B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="30">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="C23" s="30">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D23" s="30">
+        <f t="shared" ref="D23:D26" si="0">C23-B23</f>
+        <v>6.9444444444449749E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="30">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D24" s="30">
+        <f t="shared" si="0"/>
+        <v>-0.46180555555555558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B403297-8362-43CD-A209-AEFFC46860CE}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="29">
+        <f ca="1">TODAY()</f>
+        <v>44697</v>
+      </c>
+      <c r="C1" s="29">
+        <v>26697</v>
+      </c>
+      <c r="E1" s="29">
+        <v>30660</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f ca="1">A1-C1</f>
+        <v>18000</v>
+      </c>
+      <c r="E3">
+        <f ca="1">A1-E1</f>
+        <v>14037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f ca="1">C3/365</f>
+        <v>49.315068493150683</v>
+      </c>
+      <c r="E5">
+        <f ca="1">E3/365</f>
+        <v>38.457534246575342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f ca="1">DAYS360(C1,A1)</f>
+        <v>17744</v>
+      </c>
+      <c r="E7">
+        <f ca="1">DAYS360(E1,A1)</f>
+        <v>13836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f ca="1">C7/360</f>
+        <v>49.288888888888891</v>
+      </c>
+      <c r="E8">
+        <f ca="1">E7/360</f>
+        <v>38.43333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f ca="1">ROUND(C8,0)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f ca="1">ROUNDUP(C8,0)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f ca="1">ROUNDDOWN(C8,0)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f ca="1">INT(C8)</f>
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <f ca="1">INT(E8)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f ca="1">INT(DAYS360(C1,A1)/360)</f>
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <f ca="1">INT(DAYS360(E1,A1)/360)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927635BC-6B67-4733-9EE4-144041466351}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="29">
+        <f ca="1">TODAY()</f>
+        <v>44697</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>55</v>
+      </c>
+      <c r="D3" s="29">
+        <v>43915</v>
+      </c>
+      <c r="E3" s="4">
+        <f>B3*C3</f>
+        <v>275000</v>
+      </c>
+      <c r="F3">
+        <f ca="1">INT(DAYS360(D3,$D$1)/360)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>6000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="29">
+        <v>43905</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E6" si="0">B4*C4</f>
+        <v>300000</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F6" ca="1" si="1">INT(DAYS360(D4,$D$1)/360)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+      <c r="D5" s="29">
+        <v>43498</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>75</v>
+      </c>
+      <c r="D6" s="29">
+        <v>43156</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8434D0DD-668D-4AE8-9006-81E037E5BCAC}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D1" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="29">
+        <v>44697</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="29">
+        <v>44697</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>300</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="29">
+        <v>44697</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="29">
+        <v>44697</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="29">
+        <v>44697</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="29">
+        <v>44697</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>800</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="29">
+        <v>44697</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>